--- a/LEMARON.xlsx
+++ b/LEMARON.xlsx
@@ -25103,7 +25103,7 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25849,10 +25849,12 @@
         <f>C29+D30+E30</f>
         <v>2000</v>
       </c>
-      <c r="G30" s="26"/>
+      <c r="G30" s="26">
+        <v>2000</v>
+      </c>
       <c r="H30" s="25">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -26070,10 +26072,12 @@
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="G39" s="128"/>
+      <c r="G39" s="128">
+        <v>2000</v>
+      </c>
       <c r="H39" s="25">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -26229,11 +26233,11 @@
       </c>
       <c r="G45" s="139">
         <f>SUM(G28:G44)</f>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="H45" s="41">
         <f>SUM(H28:H44)</f>
-        <v>50650</v>
+        <v>46650</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -26296,7 +26300,7 @@
       </c>
       <c r="F48" s="25">
         <f>G45+G26</f>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="26"/>
@@ -26410,7 +26414,7 @@
       </c>
       <c r="F54" s="28">
         <f>F48+F50+F53+F51</f>
-        <v>-44450</v>
+        <v>-40450</v>
       </c>
       <c r="G54" s="28"/>
       <c r="H54" s="24"/>
@@ -26525,7 +26529,7 @@
       <c r="E62" s="41"/>
       <c r="F62" s="40">
         <f>F48+F51+F50+F53-H49-H51</f>
-        <v>-48850</v>
+        <v>-44850</v>
       </c>
       <c r="G62" s="40"/>
       <c r="H62" s="41">
@@ -26534,7 +26538,7 @@
       </c>
       <c r="I62" s="41">
         <f>F62-H62</f>
-        <v>-51212</v>
+        <v>-47212</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">

--- a/LEMARON.xlsx
+++ b/LEMARON.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="7620" firstSheet="17" activeTab="21"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="7620" firstSheet="15" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="MARCH 20" sheetId="1" r:id="rId1"/>
@@ -13807,7 +13807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
@@ -15484,8 +15484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17131,7 +17131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
@@ -18798,8 +18798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25102,8 +25102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25360,10 +25360,12 @@
         <f t="shared" si="1"/>
         <v>7400</v>
       </c>
-      <c r="G12" s="128"/>
+      <c r="G12" s="128">
+        <v>4000</v>
+      </c>
       <c r="H12" s="25">
         <f t="shared" si="0"/>
-        <v>7400</v>
+        <v>3400</v>
       </c>
       <c r="I12" s="128"/>
     </row>
@@ -25504,15 +25506,17 @@
         <f t="shared" si="1"/>
         <v>7000</v>
       </c>
-      <c r="G18" s="128"/>
+      <c r="G18" s="128">
+        <v>5000</v>
+      </c>
       <c r="H18" s="25">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="I18" s="128"/>
       <c r="L18" s="65">
         <f>E45</f>
-        <v>28500</v>
+        <v>30500</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -25540,7 +25544,7 @@
       <c r="I19" s="128"/>
       <c r="L19" s="65">
         <f>L17+L18</f>
-        <v>44000</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -25571,7 +25575,7 @@
       </c>
       <c r="L20" s="65">
         <f>C49</f>
-        <v>4400</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -25597,7 +25601,7 @@
       <c r="I21" s="128"/>
       <c r="L21" s="65">
         <f>L19-L20</f>
-        <v>39600</v>
+        <v>41400</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -25655,7 +25659,7 @@
       <c r="I23" s="128"/>
       <c r="L23" s="65">
         <f>L21-L22</f>
-        <v>37600</v>
+        <v>39400</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -25713,7 +25717,7 @@
       <c r="I25" s="128"/>
       <c r="L25" s="65">
         <f>L23-L24</f>
-        <v>35600</v>
+        <v>37400</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -25739,11 +25743,11 @@
       </c>
       <c r="G26" s="139">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="H26" s="140">
         <f t="shared" si="2"/>
-        <v>24400</v>
+        <v>15400</v>
       </c>
       <c r="I26" s="139">
         <f>SUM(I6:I25)</f>
@@ -25768,7 +25772,7 @@
       <c r="I27" s="209"/>
       <c r="L27" s="65">
         <f>L25-L26</f>
-        <v>20238</v>
+        <v>22038</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -25827,7 +25831,7 @@
       </c>
       <c r="L29" s="65">
         <f>L27-L28</f>
-        <v>19938</v>
+        <v>21738</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -25876,10 +25880,12 @@
         <f t="shared" ref="F31:F44" si="4">C31+D31+E31</f>
         <v>3700</v>
       </c>
-      <c r="G31" s="25"/>
+      <c r="G31" s="25">
+        <v>2000</v>
+      </c>
       <c r="H31" s="25">
         <f>F31-G31</f>
-        <v>3700</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -25921,10 +25927,12 @@
         <f t="shared" si="4"/>
         <v>2800</v>
       </c>
-      <c r="G33" s="133"/>
+      <c r="G33" s="133">
+        <v>2200</v>
+      </c>
       <c r="H33" s="25">
         <f>F33-G33</f>
-        <v>2800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -25939,15 +25947,17 @@
         <f>'NOVEMBER 21'!H34:H49</f>
         <v>6300</v>
       </c>
-      <c r="E34" s="127"/>
+      <c r="E34" s="127">
+        <v>2000</v>
+      </c>
       <c r="F34" s="127">
         <f t="shared" si="4"/>
-        <v>6300</v>
+        <v>8300</v>
       </c>
       <c r="G34" s="128"/>
       <c r="H34" s="25">
         <f>F34-G34</f>
-        <v>6300</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -26047,10 +26057,12 @@
         <f t="shared" si="4"/>
         <v>4000</v>
       </c>
-      <c r="G38" s="128"/>
+      <c r="G38" s="128">
+        <v>3000</v>
+      </c>
       <c r="H38" s="25">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -26225,19 +26237,19 @@
       </c>
       <c r="E45" s="138">
         <f>SUM(E29:E44)</f>
-        <v>28500</v>
+        <v>30500</v>
       </c>
       <c r="F45" s="138">
         <f>SUM(F29:F44)</f>
-        <v>52650</v>
+        <v>54650</v>
       </c>
       <c r="G45" s="139">
         <f>SUM(G28:G44)</f>
-        <v>6000</v>
+        <v>13200</v>
       </c>
       <c r="H45" s="41">
         <f>SUM(H28:H44)</f>
-        <v>46650</v>
+        <v>41450</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -26291,7 +26303,7 @@
       </c>
       <c r="B48" s="25">
         <f>E45+E26</f>
-        <v>44000</v>
+        <v>46000</v>
       </c>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
@@ -26300,7 +26312,7 @@
       </c>
       <c r="F48" s="25">
         <f>G45+G26</f>
-        <v>6000</v>
+        <v>22200</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="26"/>
@@ -26315,7 +26327,7 @@
       </c>
       <c r="C49" s="28">
         <f>B49*B48</f>
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="24" t="s">
@@ -26327,7 +26339,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="28">
         <f>F49*B48</f>
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="I49" s="25"/>
     </row>
@@ -26405,7 +26417,7 @@
       </c>
       <c r="B54" s="28">
         <f>B48+B50+B53+B52</f>
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
@@ -26414,7 +26426,7 @@
       </c>
       <c r="F54" s="28">
         <f>F48+F50+F53+F51</f>
-        <v>-40450</v>
+        <v>-24250</v>
       </c>
       <c r="G54" s="28"/>
       <c r="H54" s="24"/>
@@ -26516,7 +26528,7 @@
       </c>
       <c r="B62" s="40">
         <f>B48+B50+B51+B52+B53-C49</f>
-        <v>22600</v>
+        <v>24400</v>
       </c>
       <c r="C62" s="41">
         <f>SUM(C56:C61)</f>
@@ -26524,12 +26536,12 @@
       </c>
       <c r="D62" s="41">
         <f>B62-C62</f>
-        <v>20238</v>
+        <v>22038</v>
       </c>
       <c r="E62" s="41"/>
       <c r="F62" s="40">
         <f>F48+F51+F50+F53-H49-H51</f>
-        <v>-44850</v>
+        <v>-28850</v>
       </c>
       <c r="G62" s="40"/>
       <c r="H62" s="41">
@@ -26538,7 +26550,7 @@
       </c>
       <c r="I62" s="41">
         <f>F62-H62</f>
-        <v>-47212</v>
+        <v>-31212</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
